--- a/src/main/resources/test_excel.xlsx
+++ b/src/main/resources/test_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习文件\BI\springboot-init-master\springboot-init-master\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5110DD94-BCAC-40CE-9BF5-9AE35A7A3A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8E4918-A573-498E-9129-46A02E5EB370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1785" windowWidth="21600" windowHeight="11250" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="9970" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>3号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -476,15 +488,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="23.25"/>
+  <sheetFormatPr defaultColWidth="11.05078125" defaultRowHeight="22.5"/>
   <cols>
-    <col min="4" max="4" width="10.765625" style="5"/>
+    <col min="4" max="4" width="10.734375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -523,6 +535,30 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/test_excel.xlsx
+++ b/src/main/resources/test_excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习文件\BI\springboot-init-master\springboot-init-master\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study-file\BI\MyBI-backend\MyBI-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8E4918-A573-498E-9129-46A02E5EB370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD0D18B-4295-44EC-A536-ECAC4F2BFFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="9970" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -66,6 +66,62 @@
   </si>
   <si>
     <t>6号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -488,15 +544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.05078125" defaultRowHeight="22.5"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="23.25"/>
   <cols>
-    <col min="4" max="4" width="10.734375" style="5"/>
+    <col min="4" max="4" width="10.765625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -559,6 +615,118 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
